--- a/StructureDefinition-ext-R5-TerminologyCapabilities.codeSystem.xlsx
+++ b/StructureDefinition-ext-R5-TerminologyCapabilities.codeSystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="254">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -406,7 +406,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CodeSystem|0.0.1-snapshot-3|CodeSystem|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CodeSystem|CodeSystem)
 </t>
   </si>
   <si>
@@ -592,7 +592,7 @@
     <t>IETF language tag</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-languages-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-languages-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:version.extension:filter</t>
@@ -779,12 +779,6 @@
   </si>
   <si>
     <t>Extension.extension:content.value[x]</t>
-  </si>
-  <si>
-    <t>The extent of the content of the code system (the concepts and codes it defines) are represented in a code system resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-codesystem-content-mode-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:subsumption</t>
@@ -1165,8 +1159,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="100.58984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.3515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -7312,13 +7306,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -7356,13 +7350,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7387,14 +7381,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7463,7 +7457,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7566,7 +7560,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7671,7 +7665,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7714,7 +7708,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7776,7 +7770,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -7805,10 +7799,10 @@
         <v>159</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
